--- a/documentacion/2. Planeación/5. Estimación por puntos de función.xlsx
+++ b/documentacion/2. Planeación/5. Estimación por puntos de función.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniopaternina/OneDrive/PGC/Ingeniería del Software II/Proyecto/taller-crud-login/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acpat\Documents\projects\poli\ingenieria-software-ii\poli-booking\documentacion\2. Planeación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19480" yWindow="460" windowWidth="18920" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="19485" yWindow="465" windowWidth="18915" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="FPs" sheetId="7" r:id="rId7"/>
     <sheet name="VAF" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="160">
   <si>
     <t>Identificación del Proyecto</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Validación login</t>
   </si>
   <si>
-    <t>Menaje de error cuando el usuario y/o contraseña son incorrectos</t>
-  </si>
-  <si>
     <t>Mensaje de error restablecer contraseña</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t># de DETs (data element type)</t>
   </si>
   <si>
-    <t>Listar usuarios</t>
-  </si>
-  <si>
     <t>Se muestra una lista de usuarios mostrando todos los campos capturados en la creación del usuario.</t>
   </si>
   <si>
@@ -346,36 +340,6 @@
     <t>((TDI*0.01)+0.65)</t>
   </si>
   <si>
-    <t>Resumen de lo ejecutado</t>
-  </si>
-  <si>
-    <t>Montar stack del backend</t>
-  </si>
-  <si>
-    <t>Actividad</t>
-  </si>
-  <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Creación de servicios REST para crud de usuarios</t>
-  </si>
-  <si>
-    <t>Implementación de seguridad</t>
-  </si>
-  <si>
-    <t>Servicios de backend para flujo de restablecimiento de contraseña por correo</t>
-  </si>
-  <si>
-    <t>Creación de vistas en backbone para login</t>
-  </si>
-  <si>
-    <t>Creación de vistas en backbone para gestión de usuarios</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Esfuerzo horas</t>
   </si>
   <si>
@@ -416,12 +380,150 @@
   </si>
   <si>
     <t>Los requerimientos del usuario no consideran la necesidad de más de un sitio de instalación.</t>
+  </si>
+  <si>
+    <t>Consultar usuario</t>
+  </si>
+  <si>
+    <t>DETs (nombre de usuario  + correo + profesión + roles + código + botón de completar), FTR (tabla de usuarios)</t>
+  </si>
+  <si>
+    <t>Generar Bloques Masivamente</t>
+  </si>
+  <si>
+    <t>Eliminar Bloques Masivamente</t>
+  </si>
+  <si>
+    <t>DETs (tipo espacio + fecha inicio + fecha fin + botón generar), FTRs (tabla bloques_plantilla, tabla bloques, tabla espacios)</t>
+  </si>
+  <si>
+    <t>DETs (combo tipo espacio + fecha inicio + fecha fin + botón eliminar + mensaje de confirmación + botón de confirmación), FTRs (tabla bloque, tabla espacios)</t>
+  </si>
+  <si>
+    <t>Reservar Cubículo estudio</t>
+  </si>
+  <si>
+    <t>Reservar Cubículo video</t>
+  </si>
+  <si>
+    <t>Reservar Gimnasio</t>
+  </si>
+  <si>
+    <t>Reservar Cancha de Tenis</t>
+  </si>
+  <si>
+    <t>Reservar Cancha Múltiple</t>
+  </si>
+  <si>
+    <t>Reservar Cancha de Fútbol</t>
+  </si>
+  <si>
+    <t>Reservar Computadores</t>
+  </si>
+  <si>
+    <t>Cancelar Reserva Cubículo estudio</t>
+  </si>
+  <si>
+    <t>Cancelar Reserva Cubículo video</t>
+  </si>
+  <si>
+    <t>Cancelar Reserva Gimnasio</t>
+  </si>
+  <si>
+    <t>Cancelar Reserva Cancha de Tenis</t>
+  </si>
+  <si>
+    <t>Cancelar Reserva Cancha Múltiple</t>
+  </si>
+  <si>
+    <t>Cancelar Reserva Cancha de Fútbol</t>
+  </si>
+  <si>
+    <t>Cancelar Reserva Computadores</t>
+  </si>
+  <si>
+    <t>DETs (espacio + fecha +hora inicio + hora fin + botón reservar), FTRs (tabla reservas)</t>
+  </si>
+  <si>
+    <t>DETs (tipo espacio + nombre espacio + dia + inicio + fin), FTRs (tabla reservas)</t>
+  </si>
+  <si>
+    <t>Validación campos requeridos en generación masiva de bloques horarios</t>
+  </si>
+  <si>
+    <t>Validación consistencia de fechas en generación masiva de bloques horarios</t>
+  </si>
+  <si>
+    <t>Validación de camos requeridos en eliminación masiva de bloques horarios</t>
+  </si>
+  <si>
+    <t>Validación consistencia de fechas en eliminación masiva de bloques horarios</t>
+  </si>
+  <si>
+    <t>Mensaje de error cuando el usuario y/o contraseña son incorrectos</t>
+  </si>
+  <si>
+    <t>Mensaje de error cuando no se ingresaron todos los datos necesarios para la generación masiva de bloques horarios en base a los bloques plantilla</t>
+  </si>
+  <si>
+    <t>Mensaje de error cuando no se ingresaron todos los datos necesarios para la eliminación masiva de bloques horarios</t>
+  </si>
+  <si>
+    <t>Mensaje de error cuando las fechas ingresadas no guardan una relación lógica para la generación masiva de bloques horarios</t>
+  </si>
+  <si>
+    <t>Mensaje de error cuando las fechas ingresadas no guardan una relación lógica para la eliminación masiva de bloques horarios</t>
+  </si>
+  <si>
+    <t>Estadísticas Reservas - Torta</t>
+  </si>
+  <si>
+    <t>DETs (tipo espacio + conteo), FTRs (tabla reservas)</t>
+  </si>
+  <si>
+    <t>Estadísticas Reservas - Gráfico de líneas</t>
+  </si>
+  <si>
+    <t>Estadísticas Histórico Reservas - Torta</t>
+  </si>
+  <si>
+    <t>Estadísticas Histórico Reservas - Gráfico de líneas</t>
+  </si>
+  <si>
+    <t>Tabla Bloques</t>
+  </si>
+  <si>
+    <t>Campos (id, dia, tiempo_inicio, tiempo_fin, espacio_id)</t>
+  </si>
+  <si>
+    <t>Tabla Bloques Plantilla</t>
+  </si>
+  <si>
+    <t>Campos (id, dia, hora_inicio, hora_fin, tipo_espacio_id)</t>
+  </si>
+  <si>
+    <t>Tabla Espacio</t>
+  </si>
+  <si>
+    <t>Campos (id, cupos, nombre, tipo_espacio_id)</t>
+  </si>
+  <si>
+    <t>Tabla Reservas</t>
+  </si>
+  <si>
+    <t>Campos (id, fecha_reserva, bloque_id, usuario_id)</t>
+  </si>
+  <si>
+    <t>Tabla Tipo Espacio</t>
+  </si>
+  <si>
+    <t>Campos (id, nombre)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -584,13 +686,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -614,9 +709,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -628,99 +720,111 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,87 +1106,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.125" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="1:6" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="24">
         <v>42781</v>
       </c>
-      <c r="C5" s="28"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="E7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1092,13 +1196,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
         <f>IF(FPs!E19=0," ",FPs!E19)</f>
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -1110,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1122,125 +1226,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1">
         <f>IF(OR(B9=" ",B10=" ")," ",B9*B10)</f>
-        <v>52.7</v>
+        <v>153.00000000000003</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1">
         <f>B11*F8</f>
-        <v>1054</v>
+        <v>3060.0000000000005</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1">
         <f>B11/(1/F9)</f>
-        <v>263.5</v>
+        <v>765.00000000000011</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="1">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="1">
-        <f>SUM(B17:B22)</f>
-        <v>33</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A15:C15"/>
+  <mergeCells count="6">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:C1"/>
@@ -1254,62 +1277,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1319,68 +1342,68 @@
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <f>IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&lt;=15,$C5&lt;=1),AND($B5&lt;=4,$C5&lt;=2)),1,0)," ")</f>
+        <f t="shared" ref="D5:D27" si="0">IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&lt;=15,$C5&lt;=1),AND($B5&lt;=4,$C5&lt;=2)),1,0)," ")</f>
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f>IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&gt;15,$C5&lt;=1),AND($B5&gt;4,$B5&lt;=15,$C5&gt;1,$C5&lt;=2),AND($B5&lt;=4,$C5&gt;2)),1,0)," ")</f>
+        <f t="shared" ref="E5:E27" si="1">IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&gt;15,$C5&lt;=1),AND($B5&gt;4,$B5&lt;=15,$C5&gt;1,$C5&lt;=2),AND($B5&lt;=4,$C5&gt;2)),1,0)," ")</f>
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f>IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&gt;4,$C5&gt;2),AND($B5&gt;15,$C5&gt;1)),1,0)," ")</f>
+        <f t="shared" ref="F5:F27" si="2">IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&gt;4,$C5&gt;2),AND($B5&gt;15,$C5&gt;1)),1,0)," ")</f>
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:D16" si="0">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&lt;=15,$C6&lt;=1),AND($B6&lt;=4,$C6&lt;=2)),1,0)," ")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ref="E6:E16" si="1">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&gt;15,$C6&lt;=1),AND($B6&gt;4,$B6&lt;=15,$C6&gt;1,$C6&lt;=2),AND($B6&lt;=4,$C6&gt;2)),1,0)," ")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F16" si="2">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&gt;4,$C6&gt;2),AND($B6&gt;15,$C6&gt;1)),1,0)," ")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -1398,18 +1421,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
@@ -1424,188 +1447,506 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5">
+        <f>SUM(D5:D27)</f>
+        <v>19</v>
+      </c>
+      <c r="E28" s="5">
+        <f>SUM(E5:E27)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E16" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F16" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5">
-        <f>SUM(D5:D16)</f>
-        <v>6</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" ref="E17:F17" si="3">SUM(E5:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="3"/>
+      <c r="F28" s="5">
+        <f>SUM(F5:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1623,75 +1964,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2"/>
+    <col min="7" max="7" width="38.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="4" t="s">
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="3">
@@ -1700,15 +2043,15 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="54">
         <f>IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&lt;=19,$C5&lt;=1),AND($B5&lt;=5,$C5&lt;=3)),1,0)," ")</f>
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="54">
         <f>IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&gt;19,$C5&lt;=1),AND($B5&gt;5,$B5&lt;=19,$C5&gt;1,$C5&lt;=3),AND($B5&lt;=5,$C5&gt;3)),1,0)," ")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="54">
         <f>IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&gt;5,$C5&gt;3),AND($B5&gt;19,$C5&gt;1)),1,0)," ")</f>
         <v>0</v>
       </c>
@@ -1716,8 +2059,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="3">
@@ -1726,225 +2069,289 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="54">
         <f t="shared" ref="D6:D16" si="0">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&lt;=19,$C6&lt;=1),AND($B6&lt;=5,$C6&lt;=3)),1,0)," ")</f>
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="54">
         <f t="shared" ref="E6:E16" si="1">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&gt;19,$C6&lt;=1),AND($B6&gt;5,$B6&lt;=19,$C6&gt;1,$C6&lt;=3),AND($B6&lt;=5,$C6&gt;3)),1,0)," ")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="54">
         <f t="shared" ref="F6:F16" si="2">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&gt;5,$C6&gt;3),AND($B6&gt;19,$C6&gt;1)),1,0)," ")</f>
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F16" s="5" t="str">
+      <c r="D16" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E16" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F16" s="54" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="5">
+      <c r="D17" s="54">
         <f>SUM(D5:D16)</f>
-        <v>3</v>
-      </c>
-      <c r="E17" s="5">
+        <v>11</v>
+      </c>
+      <c r="E17" s="54">
         <f t="shared" ref="E17:F17" si="3">SUM(E5:E16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1967,106 +2374,106 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="44" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="37" t="s">
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2074,17 +2481,17 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="11" t="str">
         <f>IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&lt;=15,$C5&lt;=1),AND($B5&lt;=4,$C5&lt;=2)),"Baja",IF(OR(AND($B5&gt;15,$C5&lt;=1),AND($B5&gt;4,$B5&lt;=15,$C5&gt;1,$C5&lt;=2),AND($B5&lt;=4,$C5&gt;2)),"Promedio",IF(OR(AND($B5&gt;4,$C5&gt;2),AND($B5&gt;15,$C5&gt;1)),"Alta")))," ")</f>
         <v>Baja</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="14" t="str">
+      <c r="G5" s="11" t="str">
         <f>IF(AND(ISNUMBER($E5),ISNUMBER($F5)),IF(OR(AND($E5&lt;=19,$F5&lt;=1),AND($E5&lt;=5,$F5&lt;=3)),"Baja",IF(OR(AND($E5&gt;19,$F5&lt;=1),AND($E5&gt;5,$E5&lt;=19,$F5&gt;1,$F5&lt;=3),AND($E5&lt;=5,$F5&gt;3)),"Promedio",IF(OR(AND($E5&gt;5,$F5&gt;3),AND($E5&gt;19,$F5&gt;1)),"Alta")))," ")</f>
         <v>Baja</v>
       </c>
@@ -2101,48 +2508,60 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="14" t="str">
-        <f t="shared" ref="D6:D16" si="0">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&lt;=15,$C6&lt;=1),AND($B6&lt;=4,$C6&lt;=2)),"Low",IF(OR(AND($B6&gt;15,$C6&lt;=1),AND($B6&gt;4,$B6&lt;=15,$C6&gt;1,$C6&lt;=2),AND($B6&lt;=4,$C6&gt;2)),"Avg",IF(OR(AND($B6&gt;4,$C6&gt;2),AND($B6&gt;15,$C6&gt;1)),"High")))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="14" t="str">
-        <f t="shared" ref="G6:G16" si="1">IF(AND(ISNUMBER($E6),ISNUMBER($F6)),IF(OR(AND($E6&lt;=19,$F6&lt;=1),AND($E6&lt;=5,$F6&lt;=3)),"Low",IF(OR(AND($E6&gt;19,$F6&lt;=1),AND($E6&gt;5,$E6&lt;=19,$F6&gt;1,$F6&lt;=3),AND($E6&lt;=5,$F6&gt;3)),"Avg",IF(OR(AND($E6&gt;5,$F6&gt;3),AND($E6&gt;19,$F6&gt;1)),"High")))," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" ref="H6:H15" si="2">IF(AND(ISNUMBER($B6),ISNUMBER($C6),ISNUMBER($E6),ISNUMBER($F6)),IF(AND(D6="Low",G6="Low"),1,0)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f t="shared" ref="I6:I15" si="3">IF(AND(ISNUMBER($B6),ISNUMBER($C6),ISNUMBER($E6),ISNUMBER($F6)),IF(AND($H6=0,J6=0),1,0)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J6" s="5" t="str">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f t="shared" ref="D6:D16" si="0">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&lt;=15,$C6&lt;=1),AND($B6&lt;=4,$C6&lt;=2)),"Baja",IF(OR(AND($B6&gt;15,$C6&lt;=1),AND($B6&gt;4,$B6&lt;=15,$C6&gt;1,$C6&lt;=2),AND($B6&lt;=4,$C6&gt;2)),"Promedio",IF(OR(AND($B6&gt;4,$C6&gt;2),AND($B6&gt;15,$C6&gt;1)),"Alta")))," ")</f>
+        <v>Baja</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f t="shared" ref="G6:G16" si="1">IF(AND(ISNUMBER($E6),ISNUMBER($F6)),IF(OR(AND($E6&lt;=19,$F6&lt;=1),AND($E6&lt;=5,$F6&lt;=3)),"Baja",IF(OR(AND($E6&gt;19,$F6&lt;=1),AND($E6&gt;5,$E6&lt;=19,$F6&gt;1,$F6&lt;=3),AND($E6&lt;=5,$F6&gt;3)),"Promedio",IF(OR(AND($E6&gt;5,$F6&gt;3),AND($E6&gt;19,$F6&gt;1)),"Alta")))," ")</f>
+        <v>Baja</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6:H16" si="2">IF(AND(ISNUMBER($B6),ISNUMBER($C6),ISNUMBER($E6),ISNUMBER($F6)),IF(AND(D6="Low",G6="Low"),1,0)," ")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" ref="I6:I16" si="3">IF(AND(ISNUMBER($B6),ISNUMBER($C6),ISNUMBER($E6),ISNUMBER($F6)),IF(AND($H6=0,J6=0),1,0)," ")</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" ref="J6:J16" si="4">IF(AND(ISNUMBER($B6),ISNUMBER($C6),ISNUMBER($E6),ISNUMBER($F6)),IF(OR($D6="High",$G6="High"),1,0)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="14" t="str">
+      <c r="G7" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2160,17 +2579,17 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="14" t="str">
+      <c r="G8" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2188,17 +2607,17 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="14" t="str">
+      <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="14" t="str">
+      <c r="G9" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2216,17 +2635,17 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2244,17 +2663,17 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="14" t="str">
+      <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2272,17 +2691,17 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="14" t="str">
+      <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2300,17 +2719,17 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2328,17 +2747,17 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="14" t="str">
+      <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2356,17 +2775,17 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="14" t="str">
+      <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2384,54 +2803,54 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H16" s="16" t="str">
-        <f t="shared" ref="H16" si="5">IF(AND(ISNUMBER($B16),ISNUMBER($C16),ISNUMBER($E16),ISNUMBER($F16)),IF(AND(D16="Low",G16="Low"),1,0)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I16" s="16" t="str">
-        <f t="shared" ref="I16" si="6">IF(AND(ISNUMBER($B16),ISNUMBER($C16),ISNUMBER($E16),ISNUMBER($F16)),IF(AND($H16=0,J16=0),1,0)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J16" s="16" t="str">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J16" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="5">
         <f>SUM(H5:H16)</f>
         <v>0</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" ref="I17:J17" si="7">SUM(I5:I16)</f>
-        <v>1</v>
+        <f t="shared" ref="I17:J17" si="5">SUM(I5:I16)</f>
+        <v>2</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K17" s="1"/>
@@ -2453,61 +2872,61 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.1640625" customWidth="1"/>
+    <col min="7" max="7" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
@@ -2517,13 +2936,13 @@
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
@@ -2544,12 +2963,12 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -2570,12 +2989,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -2596,12 +3015,12 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -2622,100 +3041,140 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2733,7 +3192,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2751,25 +3210,25 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E16" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F16" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2777,7 +3236,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="5">
         <f>SUM(D5:D16)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:F17" si="3">SUM(E5:E16)</f>
@@ -2809,55 +3268,55 @@
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" customWidth="1"/>
+    <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="37" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
@@ -2867,11 +3326,11 @@
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2889,7 +3348,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2907,7 +3366,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2925,7 +3384,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2943,7 +3402,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2961,7 +3420,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2979,7 +3438,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2997,7 +3456,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3015,7 +3474,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3033,7 +3492,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3051,7 +3510,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3069,7 +3528,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3087,7 +3546,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -3127,70 +3586,70 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1">
         <f>ILFs!$D$17</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>7</v>
       </c>
       <c r="E4" s="1">
         <f>C4*D4</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1">
@@ -3205,9 +3664,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="1">
@@ -3222,11 +3681,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1">
@@ -3241,9 +3700,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1">
@@ -3258,9 +3717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="1">
@@ -3275,49 +3734,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1">
-        <f>EIs!$D$17</f>
-        <v>6</v>
+        <f>EIs!$D$28</f>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1">
-        <f>EIs!$E$17</f>
-        <v>0</v>
+        <f>EIs!$E$28</f>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="1">
-        <f>EIs!$F$17</f>
+        <f>EIs!$F$28</f>
         <v>0</v>
       </c>
       <c r="D12" s="1">
@@ -3328,28 +3787,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="1">
         <f>EOs!$D$17</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1">
@@ -3364,9 +3823,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1">
@@ -3381,11 +3840,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="1">
@@ -3400,26 +3859,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="1">
         <f>EQs!$I$17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="1">
@@ -3434,16 +3893,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+    <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="1">
         <f>SUM(E4:E18)</f>
-        <v>62</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3464,264 +3923,264 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-    </row>
-    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D6" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D7" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="54" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D14" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="54" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D15" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="53"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="47"/>
       <c r="C18" s="3">
         <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C7),ISNUMBER(C8),ISNUMBER(C9),ISNUMBER(C10),ISNUMBER(C11),ISNUMBER(C12),ISNUMBER(C13),ISNUMBER(C14),ISNUMBER(C15),ISNUMBER(C16),ISNUMBER(C17)),SUM(C4:C17)," ")</f>
         <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="3">
         <f>IF(OR($C18=" ",C4&gt;5,C5&gt;5,C6&gt;5,C7&gt;5,C8&gt;5,C9&gt;8,C10&gt;5,C11&gt;5,C12&gt;5,C13&gt;5,C14&gt;5,C15&gt;5,C16&gt;5,C17&gt;5)," ",(C18*0.01)+0.65)</f>
         <v>0.85000000000000009</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/documentacion/2. Planeación/5. Estimación por puntos de función.xlsx
+++ b/documentacion/2. Planeación/5. Estimación por puntos de función.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19485" yWindow="465" windowWidth="18915" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="19485" yWindow="465" windowWidth="18915" windowHeight="21060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="166">
   <si>
     <t>Identificación del Proyecto</t>
   </si>
@@ -518,6 +518,24 @@
   </si>
   <si>
     <t>Campos (id, nombre)</t>
+  </si>
+  <si>
+    <t>Correo restablecimiento de contraseña</t>
+  </si>
+  <si>
+    <t>Correo notificación reserva realizada</t>
+  </si>
+  <si>
+    <t>Correo notificación reserva cancelada</t>
+  </si>
+  <si>
+    <t>Correo notificación reserva cancelada por administrador</t>
+  </si>
+  <si>
+    <t>DETs (token), FTR (tabla de tokens)</t>
+  </si>
+  <si>
+    <t>DETs (tipo, nombre, dia, inicio, fin), FTRs (tabla reservas)</t>
   </si>
 </sst>
 </file>
@@ -727,24 +745,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -775,6 +805,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -804,27 +843,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1121,45 +1139,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="27">
         <v>42781</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
@@ -1167,11 +1185,11 @@
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="E7" s="19" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1220,7 @@
       </c>
       <c r="B9" s="1">
         <f>IF(FPs!E19=0," ",FPs!E19)</f>
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -1232,7 +1250,7 @@
       </c>
       <c r="B11" s="1">
         <f>IF(OR(B9=" ",B10=" ")," ",B9*B10)</f>
-        <v>153.00000000000003</v>
+        <v>166.60000000000002</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -1244,7 +1262,7 @@
       </c>
       <c r="B12" s="1">
         <f>B11*F8</f>
-        <v>3060.0000000000005</v>
+        <v>3332.0000000000005</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -1256,7 +1274,7 @@
       </c>
       <c r="B13" s="1">
         <f>B11/(1/F9)</f>
-        <v>765.00000000000011</v>
+        <v>833.00000000000011</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -1293,46 +1311,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1962,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1980,53 +1998,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="51" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="24" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="21" t="s">
@@ -2043,15 +2061,15 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="25">
         <f>IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&lt;=19,$C5&lt;=1),AND($B5&lt;=5,$C5&lt;=3)),1,0)," ")</f>
         <v>1</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="25">
         <f>IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&gt;19,$C5&lt;=1),AND($B5&gt;5,$B5&lt;=19,$C5&gt;1,$C5&lt;=3),AND($B5&lt;=5,$C5&gt;3)),1,0)," ")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="25">
         <f>IF(AND(ISNUMBER($B5),ISNUMBER($C5)),IF(OR(AND($B5&gt;5,$C5&gt;3),AND($B5&gt;19,$C5&gt;1)),1,0)," ")</f>
         <v>0</v>
       </c>
@@ -2069,16 +2087,16 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="54">
-        <f t="shared" ref="D6:D16" si="0">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&lt;=19,$C6&lt;=1),AND($B6&lt;=5,$C6&lt;=3)),1,0)," ")</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="54">
-        <f t="shared" ref="E6:E16" si="1">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&gt;19,$C6&lt;=1),AND($B6&gt;5,$B6&lt;=19,$C6&gt;1,$C6&lt;=3),AND($B6&lt;=5,$C6&gt;3)),1,0)," ")</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="54">
-        <f t="shared" ref="F6:F16" si="2">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&gt;5,$C6&gt;3),AND($B6&gt;19,$C6&gt;1)),1,0)," ")</f>
+      <c r="D6" s="25">
+        <f t="shared" ref="D6:D20" si="0">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&lt;=19,$C6&lt;=1),AND($B6&lt;=5,$C6&lt;=3)),1,0)," ")</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" ref="E6:E20" si="1">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&gt;19,$C6&lt;=1),AND($B6&gt;5,$B6&lt;=19,$C6&gt;1,$C6&lt;=3),AND($B6&lt;=5,$C6&gt;3)),1,0)," ")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" ref="F6:F20" si="2">IF(AND(ISNUMBER($B6),ISNUMBER($C6)),IF(OR(AND($B6&gt;5,$C6&gt;3),AND($B6&gt;19,$C6&gt;1)),1,0)," ")</f>
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -2095,15 +2113,15 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="54">
+      <c r="D7" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2121,15 +2139,15 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="54">
+      <c r="D8" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2147,15 +2165,15 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="54">
+      <c r="D9" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2173,15 +2191,15 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="54">
+      <c r="D10" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2199,15 +2217,15 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="54">
+      <c r="D11" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2225,15 +2243,15 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="54">
+      <c r="D12" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2251,15 +2269,15 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="54">
+      <c r="D13" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2277,15 +2295,15 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="54">
+      <c r="D14" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2303,16 +2321,16 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="54">
-        <f t="shared" si="2"/>
+      <c r="D15" s="25">
+        <f>IF(AND(ISNUMBER($B15),ISNUMBER($C15)),IF(OR(AND($B15&lt;=19,$C15&lt;=1),AND($B15&lt;=5,$C15&lt;=3)),1,0)," ")</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="25">
+        <f>IF(AND(ISNUMBER($B15),ISNUMBER($C15)),IF(OR(AND($B15&gt;19,$C15&lt;=1),AND($B15&gt;5,$B15&lt;=19,$C15&gt;1,$C15&lt;=3),AND($B15&lt;=5,$C15&gt;3)),1,0)," ")</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <f>IF(AND(ISNUMBER($B15),ISNUMBER($C15)),IF(OR(AND($B15&gt;5,$C15&gt;3),AND($B15&gt;19,$C15&gt;1)),1,0)," ")</f>
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -2320,42 +2338,137 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E16" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F16" s="54" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="25">
+        <f>IF(AND(ISNUMBER($B16),ISNUMBER($C16)),IF(OR(AND($B16&lt;=19,$C16&lt;=1),AND($B16&lt;=5,$C16&lt;=3)),1,0)," ")</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="25">
+        <f>IF(AND(ISNUMBER($B16),ISNUMBER($C16)),IF(OR(AND($B16&gt;19,$C16&lt;=1),AND($B16&gt;5,$B16&lt;=19,$C16&gt;1,$C16&lt;=3),AND($B16&lt;=5,$C16&gt;3)),1,0)," ")</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <f>IF(AND(ISNUMBER($B16),ISNUMBER($C16)),IF(OR(AND($B16&gt;5,$C16&gt;3),AND($B16&gt;19,$C16&gt;1)),1,0)," ")</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25">
+        <f>IF(AND(ISNUMBER($B17),ISNUMBER($C17)),IF(OR(AND($B17&lt;=19,$C17&lt;=1),AND($B17&lt;=5,$C17&lt;=3)),1,0)," ")</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="25">
+        <f>IF(AND(ISNUMBER($B17),ISNUMBER($C17)),IF(OR(AND($B17&gt;19,$C17&lt;=1),AND($B17&gt;5,$B17&lt;=19,$C17&gt;1,$C17&lt;=3),AND($B17&lt;=5,$C17&gt;3)),1,0)," ")</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <f>IF(AND(ISNUMBER($B17),ISNUMBER($C17)),IF(OR(AND($B17&gt;5,$C17&gt;3),AND($B17&gt;19,$C17&gt;1)),1,0)," ")</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="25">
+        <f>IF(AND(ISNUMBER($B18),ISNUMBER($C18)),IF(OR(AND($B18&lt;=19,$C18&lt;=1),AND($B18&lt;=5,$C18&lt;=3)),1,0)," ")</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="25">
+        <f>IF(AND(ISNUMBER($B18),ISNUMBER($C18)),IF(OR(AND($B18&gt;19,$C18&lt;=1),AND($B18&gt;5,$B18&lt;=19,$C18&gt;1,$C18&lt;=3),AND($B18&lt;=5,$C18&gt;3)),1,0)," ")</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <f>IF(AND(ISNUMBER($B18),ISNUMBER($C18)),IF(OR(AND($B18&gt;5,$C18&gt;3),AND($B18&gt;19,$C18&gt;1)),1,0)," ")</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="25">
+        <f>IF(AND(ISNUMBER($B19),ISNUMBER($C19)),IF(OR(AND($B19&lt;=19,$C19&lt;=1),AND($B19&lt;=5,$C19&lt;=3)),1,0)," ")</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="25">
+        <f>IF(AND(ISNUMBER($B19),ISNUMBER($C19)),IF(OR(AND($B19&gt;19,$C19&lt;=1),AND($B19&gt;5,$B19&lt;=19,$C19&gt;1,$C19&lt;=3),AND($B19&lt;=5,$C19&gt;3)),1,0)," ")</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <f>IF(AND(ISNUMBER($B19),ISNUMBER($C19)),IF(OR(AND($B19&gt;5,$C19&gt;3),AND($B19&gt;19,$C19&gt;1)),1,0)," ")</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="54">
-        <f>SUM(D5:D16)</f>
-        <v>11</v>
-      </c>
-      <c r="E17" s="54">
-        <f t="shared" ref="E17:F17" si="3">SUM(E5:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="54">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="25">
+        <f>SUM(D5:D20)</f>
+        <v>15</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" ref="E21:F21" si="3">SUM(E5:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2390,63 +2503,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="38" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -2455,16 +2568,16 @@
       <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="24" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="21" t="s">
@@ -2887,46 +3000,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
@@ -3277,46 +3390,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
@@ -3596,20 +3709,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -3629,7 +3742,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -3648,7 +3761,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
@@ -3665,7 +3778,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
@@ -3682,7 +3795,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="50" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -3701,7 +3814,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
@@ -3718,7 +3831,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
@@ -3735,7 +3848,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3754,7 +3867,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -3771,7 +3884,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
@@ -3788,31 +3901,31 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="50" t="s">
         <v>78</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="1">
-        <f>EOs!$D$17</f>
-        <v>11</v>
+        <f>EOs!$D$21</f>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1">
-        <f>EOs!$E$17</f>
+        <f>EOs!$E$21</f>
         <v>0</v>
       </c>
       <c r="D14" s="1">
@@ -3824,12 +3937,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1">
-        <f>EOs!$F$17</f>
+        <f>EOs!$F$21</f>
         <v>0</v>
       </c>
       <c r="D15" s="1">
@@ -3841,7 +3954,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="50" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -3860,7 +3973,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
@@ -3877,7 +3990,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="10" t="s">
         <v>29</v>
       </c>
@@ -3894,15 +4007,15 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="1">
         <f>SUM(E4:E18)</f>
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3936,24 +4049,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="9" t="s">
         <v>82</v>
       </c>
@@ -4158,10 +4271,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="3">
         <f>IF(AND(ISNUMBER(C4),ISNUMBER(C5),ISNUMBER(C6),ISNUMBER(C7),ISNUMBER(C8),ISNUMBER(C9),ISNUMBER(C10),ISNUMBER(C11),ISNUMBER(C12),ISNUMBER(C13),ISNUMBER(C14),ISNUMBER(C15),ISNUMBER(C16),ISNUMBER(C17)),SUM(C4:C17)," ")</f>
         <v>20</v>
@@ -4171,10 +4284,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="3">
         <f>IF(OR($C18=" ",C4&gt;5,C5&gt;5,C6&gt;5,C7&gt;5,C8&gt;5,C9&gt;8,C10&gt;5,C11&gt;5,C12&gt;5,C13&gt;5,C14&gt;5,C15&gt;5,C16&gt;5,C17&gt;5)," ",(C18*0.01)+0.65)</f>
         <v>0.85000000000000009</v>
